--- a/results/mp/logistic/corona/confidence/126/topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>died</t>
   </si>
   <si>
     <t>kill</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
@@ -67,18 +73,15 @@
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -88,133 +91,151 @@
     <t>stop</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>to</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>and</t>
   </si>
   <si>
     <t>.</t>
@@ -575,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +604,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
         <v>37</v>
@@ -644,13 +665,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7431506849315068</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +715,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.7431506849315068</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>217</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,19 +733,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -736,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -744,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,31 +783,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0.8983050847457628</v>
+      </c>
+      <c r="L5">
+        <v>53</v>
+      </c>
+      <c r="M5">
+        <v>53</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>6</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>0.9152542372881356</v>
-      </c>
-      <c r="L5">
-        <v>54</v>
-      </c>
-      <c r="M5">
-        <v>54</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +815,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +833,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5882352941176471</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +883,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.835509138381201</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +915,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.7830188679245284</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5277777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.7804878048780488</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4324324324324325</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.417989417989418</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C11">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.7758620689655172</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4117647058823529</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>21</v>
       </c>
-      <c r="D12">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>30</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.7746478873239436</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.310077519379845</v>
+        <v>0.4232804232804233</v>
       </c>
       <c r="C13">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="D13">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>356</v>
+        <v>109</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2666666666666667</v>
+        <v>0.3449612403100775</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>178</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>338</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.76875</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L14">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2203389830508475</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
         <v>0.7578125</v>
@@ -1294,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2080536912751678</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.75625</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.1305555555555556</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C17">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>313</v>
+        <v>122</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.07142857142857142</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>234</v>
+        <v>319</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7301587301587301</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,37 +1465,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.007154882154882155</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>2359</v>
+        <v>236</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.723404255319149</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.004188144329896907</v>
+        <v>0.007947639083683964</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0.19</v>
@@ -1512,19 +1533,19 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>3091</v>
+        <v>2122</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7083333333333334</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,113 +1565,89 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003473830477072719</v>
+        <v>0.003298409002716337</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="F21">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>4303</v>
+        <v>5137</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L21">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>0.7037037037037037</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>19</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>19</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.003297769156159069</v>
-      </c>
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>0.37</v>
-      </c>
-      <c r="F22">
-        <v>0.63</v>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>5138</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.6976744186046512</v>
-      </c>
-      <c r="L22">
-        <v>30</v>
-      </c>
-      <c r="M22">
-        <v>30</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1662,21 +1659,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1688,21 +1685,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.611764705882353</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L25">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="M25">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1714,21 +1711,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>132</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1740,21 +1737,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.5909090909090909</v>
+        <v>0.64</v>
       </c>
       <c r="L27">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1766,21 +1763,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.5851063829787234</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L28">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1792,21 +1789,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.5538461538461539</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1818,21 +1815,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5481171548117155</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L30">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="M30">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1844,21 +1841,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>108</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5423728813559322</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L31">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="M31">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1870,21 +1867,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1896,21 +1893,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.4857142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1922,21 +1919,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.4642857142857143</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1948,21 +1945,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4382022471910113</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1974,21 +1971,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.4242424242424243</v>
+        <v>0.5481171548117155</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2000,21 +1997,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.273972602739726</v>
+        <v>0.5</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2026,21 +2023,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.2435897435897436</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2052,21 +2049,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K39">
-        <v>0.01083333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2078,58 +2075,266 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>1187</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.004870738104158861</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N40">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>2656</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>0.4047619047619048</v>
+      </c>
+      <c r="L41">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <v>17</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K41">
-        <v>0.003008423586040915</v>
-      </c>
-      <c r="L41">
+      <c r="K42">
+        <v>0.3529411764705883</v>
+      </c>
+      <c r="L42">
+        <v>18</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43">
+        <v>0.2888888888888889</v>
+      </c>
+      <c r="L43">
+        <v>13</v>
+      </c>
+      <c r="M43">
+        <v>13</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44">
+        <v>0.2602739726027397</v>
+      </c>
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>19</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>20</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46">
+        <v>0.01501251042535446</v>
+      </c>
+      <c r="L46">
+        <v>18</v>
+      </c>
+      <c r="M46">
+        <v>19</v>
+      </c>
+      <c r="N46">
+        <v>0.95</v>
+      </c>
+      <c r="O46">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K47">
+        <v>0.007871064467766116</v>
+      </c>
+      <c r="L47">
+        <v>21</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="O47">
+        <v>0.1899999999999999</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48">
+        <v>0.003475440222428174</v>
+      </c>
+      <c r="L48">
         <v>15</v>
       </c>
-      <c r="M41">
+      <c r="M48">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O48">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49">
+        <v>0.003408179631114675</v>
+      </c>
+      <c r="L49">
+        <v>17</v>
+      </c>
+      <c r="M49">
         <v>25</v>
       </c>
-      <c r="N41">
-        <v>0.6</v>
-      </c>
-      <c r="O41">
-        <v>0.4</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
+      <c r="N49">
+        <v>0.68</v>
+      </c>
+      <c r="O49">
+        <v>0.32</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
         <v>4971</v>
       </c>
     </row>
